--- a/Data_frame/balancos_definitivos/BESP3.xlsx
+++ b/Data_frame/balancos_definitivos/BESP3.xlsx
@@ -6586,7 +6586,7 @@
         <v>1036051.968</v>
       </c>
       <c r="P58" t="n">
-        <v>1981821.696</v>
+        <v>1981821.824</v>
       </c>
       <c r="Q58" t="n">
         <v>1196263.04</v>
@@ -6598,7 +6598,7 @@
         <v>1453425.024</v>
       </c>
       <c r="T58" t="n">
-        <v>2041851.392</v>
+        <v>2041851.136</v>
       </c>
       <c r="U58" t="n">
         <v>1540420.992</v>
@@ -6622,7 +6622,7 @@
         <v>1395799.04</v>
       </c>
       <c r="AB58" t="n">
-        <v>1527297.536</v>
+        <v>1527297.792</v>
       </c>
       <c r="AC58" t="n">
         <v>1451635.968</v>
@@ -6634,7 +6634,7 @@
         <v>1382541.952</v>
       </c>
       <c r="AF58" t="n">
-        <v>1875273.728</v>
+        <v>1875274.112</v>
       </c>
       <c r="AG58" t="n">
         <v>1901570.048</v>
@@ -6664,7 +6664,7 @@
         <v>-496144.992</v>
       </c>
       <c r="H59" t="n">
-        <v>-368489.984</v>
+        <v>-368490.048</v>
       </c>
       <c r="I59" t="n">
         <v>-377974.016</v>
@@ -6688,7 +6688,7 @@
         <v>-620902.0159999999</v>
       </c>
       <c r="P59" t="n">
-        <v>-387860.096</v>
+        <v>-387860.032</v>
       </c>
       <c r="Q59" t="n">
         <v>-385163.008</v>
@@ -6712,7 +6712,7 @@
         <v>-640787.008</v>
       </c>
       <c r="X59" t="n">
-        <v>-434668.928</v>
+        <v>-434668.96</v>
       </c>
       <c r="Y59" t="n">
         <v>-537756.992</v>
@@ -6736,7 +6736,7 @@
         <v>-645542.0159999999</v>
       </c>
       <c r="AF59" t="n">
-        <v>-914561.024</v>
+        <v>-914560.8959999999</v>
       </c>
       <c r="AG59" t="n">
         <v>-874009.9840000001</v>
@@ -6778,7 +6778,7 @@
         <v>875897.024</v>
       </c>
       <c r="L60" t="n">
-        <v>305829.888</v>
+        <v>305830.016</v>
       </c>
       <c r="M60" t="n">
         <v>698227.968</v>
@@ -6802,7 +6802,7 @@
         <v>657676.032</v>
       </c>
       <c r="T60" t="n">
-        <v>1418361.984</v>
+        <v>1418361.856</v>
       </c>
       <c r="U60" t="n">
         <v>994443.008</v>
@@ -6814,7 +6814,7 @@
         <v>613051.008</v>
       </c>
       <c r="X60" t="n">
-        <v>920051.968</v>
+        <v>920052.032</v>
       </c>
       <c r="Y60" t="n">
         <v>841918.0159999999</v>
@@ -6826,7 +6826,7 @@
         <v>954846.976</v>
       </c>
       <c r="AB60" t="n">
-        <v>1060668.928</v>
+        <v>1060668.864</v>
       </c>
       <c r="AC60" t="n">
         <v>792342.0159999999</v>
@@ -6838,7 +6838,7 @@
         <v>737000</v>
       </c>
       <c r="AF60" t="n">
-        <v>960712.96</v>
+        <v>960713.024</v>
       </c>
       <c r="AG60" t="n">
         <v>1027560</v>
@@ -6940,7 +6940,7 @@
         <v>-283552.992</v>
       </c>
       <c r="AF61" t="n">
-        <v>-326359.04</v>
+        <v>-326358.944</v>
       </c>
       <c r="AG61" t="n">
         <v>-631052.992</v>
@@ -7042,7 +7042,7 @@
         <v>432672</v>
       </c>
       <c r="AF62" t="n">
-        <v>444108.032</v>
+        <v>444107.968</v>
       </c>
       <c r="AG62" t="n">
         <v>456473.984</v>
@@ -7096,7 +7096,7 @@
         <v>-278174.016</v>
       </c>
       <c r="P63" t="n">
-        <v>-424256</v>
+        <v>-424255.968</v>
       </c>
       <c r="Q63" t="n">
         <v>-254428.992</v>
@@ -7108,7 +7108,7 @@
         <v>-492024.992</v>
       </c>
       <c r="T63" t="n">
-        <v>-196518.08</v>
+        <v>-196518.064</v>
       </c>
       <c r="U63" t="n">
         <v>-262144</v>
@@ -7132,7 +7132,7 @@
         <v>-313161.984</v>
       </c>
       <c r="AB63" t="n">
-        <v>-409213.056</v>
+        <v>-409213.088</v>
       </c>
       <c r="AC63" t="n">
         <v>-363960.992</v>
@@ -7144,7 +7144,7 @@
         <v>-378206.016</v>
       </c>
       <c r="AF63" t="n">
-        <v>-166763.008</v>
+        <v>-166763.04</v>
       </c>
       <c r="AG63" t="n">
         <v>-283175.008</v>
@@ -7186,7 +7186,7 @@
         <v>-157054</v>
       </c>
       <c r="L64" t="n">
-        <v>-119435.04</v>
+        <v>-119435.024</v>
       </c>
       <c r="M64" t="n">
         <v>-172890</v>
@@ -7198,7 +7198,7 @@
         <v>-188516.992</v>
       </c>
       <c r="P64" t="n">
-        <v>-164057.024</v>
+        <v>-164057.008</v>
       </c>
       <c r="Q64" t="n">
         <v>-174735.008</v>
@@ -7222,7 +7222,7 @@
         <v>-232420.992</v>
       </c>
       <c r="X64" t="n">
-        <v>-321834.048</v>
+        <v>-321834.016</v>
       </c>
       <c r="Y64" t="n">
         <v>-338583.008</v>
@@ -7234,7 +7234,7 @@
         <v>-338156</v>
       </c>
       <c r="AB64" t="n">
-        <v>-335632.896</v>
+        <v>-335632.928</v>
       </c>
       <c r="AC64" t="n">
         <v>-392899.008</v>
@@ -7246,7 +7246,7 @@
         <v>-378278.016</v>
       </c>
       <c r="AF64" t="n">
-        <v>-443945.984</v>
+        <v>-443946.016</v>
       </c>
       <c r="AG64" t="n">
         <v>-389160</v>
@@ -7348,7 +7348,7 @@
         <v>-95155</v>
       </c>
       <c r="AF65" t="n">
-        <v>-112872.992</v>
+        <v>-112873</v>
       </c>
       <c r="AG65" t="n">
         <v>-114880</v>
@@ -7414,7 +7414,7 @@
         <v>1692146.944</v>
       </c>
       <c r="T66" t="n">
-        <v>85368.83199999999</v>
+        <v>85368.992</v>
       </c>
       <c r="U66" t="n">
         <v>420080</v>
@@ -7438,7 +7438,7 @@
         <v>125614</v>
       </c>
       <c r="AB66" t="n">
-        <v>150850.976</v>
+        <v>150850.992</v>
       </c>
       <c r="AC66" t="n">
         <v>221968</v>
@@ -7450,7 +7450,7 @@
         <v>361836.992</v>
       </c>
       <c r="AF66" t="n">
-        <v>167050.048</v>
+        <v>167050.016</v>
       </c>
       <c r="AG66" t="n">
         <v>63338</v>
@@ -7504,7 +7504,7 @@
         <v>-263456</v>
       </c>
       <c r="P67" t="n">
-        <v>-464826.112</v>
+        <v>-464826.048</v>
       </c>
       <c r="Q67" t="n">
         <v>-176607.008</v>
@@ -7528,7 +7528,7 @@
         <v>-213292.992</v>
       </c>
       <c r="X67" t="n">
-        <v>-236297.024</v>
+        <v>-236297.008</v>
       </c>
       <c r="Y67" t="n">
         <v>-230106</v>
@@ -7552,7 +7552,7 @@
         <v>-226423.008</v>
       </c>
       <c r="AF67" t="n">
-        <v>-213934.976</v>
+        <v>-213935.008</v>
       </c>
       <c r="AG67" t="n">
         <v>-363649.984</v>
@@ -7582,7 +7582,7 @@
         <v>101636</v>
       </c>
       <c r="H68" t="n">
-        <v>-222922.032</v>
+        <v>-222922.016</v>
       </c>
       <c r="I68" t="n">
         <v>35895</v>
@@ -7606,7 +7606,7 @@
         <v>199070</v>
       </c>
       <c r="P68" t="n">
-        <v>-335786.016</v>
+        <v>-335785.984</v>
       </c>
       <c r="Q68" t="n">
         <v>46844</v>
@@ -7630,7 +7630,7 @@
         <v>40707</v>
       </c>
       <c r="X68" t="n">
-        <v>-306925.984</v>
+        <v>-306926.016</v>
       </c>
       <c r="Y68" t="n">
         <v>0</v>
@@ -7744,7 +7744,7 @@
         <v>425865.984</v>
       </c>
       <c r="AB69" t="n">
-        <v>455667.968</v>
+        <v>455667.936</v>
       </c>
       <c r="AC69" t="n">
         <v>337480.992</v>
@@ -7756,7 +7756,7 @@
         <v>453447.008</v>
       </c>
       <c r="AF69" t="n">
-        <v>634354.048</v>
+        <v>634353.9840000001</v>
       </c>
       <c r="AG69" t="n">
         <v>396507.008</v>
@@ -8128,7 +8128,7 @@
         <v>1437533.952</v>
       </c>
       <c r="T73" t="n">
-        <v>499209.216</v>
+        <v>499209.152</v>
       </c>
       <c r="U73" t="n">
         <v>916662.0159999999</v>
@@ -8152,7 +8152,7 @@
         <v>414996</v>
       </c>
       <c r="AB73" t="n">
-        <v>441553.92</v>
+        <v>441554.016</v>
       </c>
       <c r="AC73" t="n">
         <v>294500.992</v>
@@ -8218,7 +8218,7 @@
         <v>35728</v>
       </c>
       <c r="P74" t="n">
-        <v>-106650.992</v>
+        <v>-106651</v>
       </c>
       <c r="Q74" t="n">
         <v>-30827</v>
@@ -8588,70 +8588,28 @@
         </is>
       </c>
       <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
-        <v>0</v>
-      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="n">
-        <v>0</v>
-      </c>
-      <c r="F78" t="n">
-        <v>0</v>
-      </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
-      <c r="L78" t="n">
-        <v>0</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0</v>
-      </c>
-      <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q78" t="n">
-        <v>0</v>
-      </c>
-      <c r="R78" t="n">
-        <v>0</v>
-      </c>
-      <c r="S78" t="n">
-        <v>0</v>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
-      </c>
-      <c r="U78" t="n">
-        <v>0</v>
-      </c>
-      <c r="V78" t="n">
-        <v>0</v>
-      </c>
-      <c r="W78" t="n">
-        <v>0</v>
-      </c>
-      <c r="X78" t="n">
-        <v>0</v>
-      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
       <c r="Y78" t="n">
         <v>0</v>
       </c>
@@ -8740,7 +8698,7 @@
         <v>1082676.992</v>
       </c>
       <c r="T79" t="n">
-        <v>494591.232</v>
+        <v>494591.136</v>
       </c>
       <c r="U79" t="n">
         <v>830049.024</v>
@@ -8752,7 +8710,7 @@
         <v>241888.992</v>
       </c>
       <c r="X79" t="n">
-        <v>437350.016</v>
+        <v>437349.984</v>
       </c>
       <c r="Y79" t="n">
         <v>327441.984</v>
@@ -8776,7 +8734,7 @@
         <v>419347.008</v>
       </c>
       <c r="AF79" t="n">
-        <v>346073.088</v>
+        <v>346073.024</v>
       </c>
       <c r="AG79" t="n">
         <v>408064.992</v>
